--- a/Data/DataDefinitions.xlsx
+++ b/Data/DataDefinitions.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>DataFile</t>
   </si>
@@ -188,6 +188,27 @@
   </si>
   <si>
     <t>time (s)</t>
+  </si>
+  <si>
+    <t>2018-10-07 13-59-17.csv</t>
+  </si>
+  <si>
+    <t>2018-10-07T14:00:08.000</t>
+  </si>
+  <si>
+    <t>2018-10-07T14:00:18.000</t>
+  </si>
+  <si>
+    <t>2018-10-07T14:00:28.000</t>
+  </si>
+  <si>
+    <t>2018-10-07T14:00:39.500</t>
+  </si>
+  <si>
+    <t>2018-10-07T14:00:59.00</t>
+  </si>
+  <si>
+    <t>2018-10-07T14:01:22.00</t>
   </si>
 </sst>
 </file>
@@ -697,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,11 +897,11 @@
       </c>
       <c r="I6" s="8">
         <f>COUNTIFS(C:C,H6,D:D,$I$3)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" s="9">
         <f>COUNTIFS(C:C,H6,D:D,$J$3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1040,6 +1061,126 @@
         <v>22</v>
       </c>
       <c r="F14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20">
         <v>6</v>
       </c>
     </row>

--- a/Data/DataDefinitions.xlsx
+++ b/Data/DataDefinitions.xlsx
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>DataFile</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>2018-10-07T14:01:22.00</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -253,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -396,11 +399,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -417,6 +459,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,13 +776,14 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -757,7 +803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -777,12 +823,13 @@
         <v>6</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -804,14 +851,17 @@
       <c r="H3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -833,16 +883,17 @@
       <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
-        <f>COUNTIFS(C:C,H4,D:D,$I$3)</f>
+      <c r="I4" s="12"/>
+      <c r="J4" s="1">
+        <f>COUNTIFS(C:C,H4,D:D,$J$3)</f>
         <v>5</v>
       </c>
-      <c r="J4" s="6">
-        <f>COUNTIFS(C:C,H4,D:D,$J$3)</f>
+      <c r="K4" s="6">
+        <f>COUNTIFS(C:C,H4,D:D,$K$3)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -864,16 +915,17 @@
       <c r="H5" s="4">
         <v>2</v>
       </c>
-      <c r="I5" s="1">
-        <f>COUNTIFS(C:C,H5,D:D,$I$3)</f>
+      <c r="I5" s="12"/>
+      <c r="J5" s="1">
+        <f>COUNTIFS(C:C,H5,D:D,$J$3)</f>
         <v>4</v>
       </c>
-      <c r="J5" s="6">
-        <f>COUNTIFS(C:C,H5,D:D,$J$3)</f>
+      <c r="K5" s="6">
+        <f>COUNTIFS(C:C,H5,D:D,$K$3)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -895,16 +947,17 @@
       <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="I6" s="8">
-        <f>COUNTIFS(C:C,H6,D:D,$I$3)</f>
+      <c r="I6" s="13"/>
+      <c r="J6" s="8">
+        <f>COUNTIFS(C:C,H6,D:D,$J$3)</f>
         <v>4</v>
       </c>
-      <c r="J6" s="9">
-        <f>COUNTIFS(C:C,H6,D:D,$J$3)</f>
+      <c r="K6" s="9">
+        <f>COUNTIFS(C:C,H6,D:D,$K$3)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -924,7 +977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -944,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -964,7 +1017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -984,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1004,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1024,7 +1077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1044,7 +1097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1064,7 +1117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1084,7 +1137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1186,7 +1239,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
